--- a/ScheduleCreator/files/PlanificacionS4.xlsx
+++ b/ScheduleCreator/files/PlanificacionS4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://espolec-my.sharepoint.com/personal/daelsand_espol_edu_ec/Documents/Random/Schedule-Creator/ScheduleCreator/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2AECC6A-F0A3-4ADC-A5FC-C184F5F3E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{E2AECC6A-F0A3-4ADC-A5FC-C184F5F3E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{599B2A98-D4CD-40B9-802E-36D17AAC8E2B}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CE1EF247-FEC7-45B3-8D91-3D3FAFC5B9AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE1EF247-FEC7-45B3-8D91-3D3FAFC5B9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanificacionS4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="84">
   <si>
     <t>Estadística</t>
   </si>
@@ -77,9 +77,6 @@
     <t>13:00-15:00</t>
   </si>
   <si>
-    <t>16:00-17:00</t>
-  </si>
-  <si>
     <t>15:00-17:00</t>
   </si>
   <si>
@@ -197,13 +194,100 @@
     <t>09:00-10:30</t>
   </si>
   <si>
-    <t>VIRTUAL Lu-Mi</t>
-  </si>
-  <si>
-    <t>RD P*</t>
-  </si>
-  <si>
-    <t>Estadística*</t>
+    <t>EDO</t>
+  </si>
+  <si>
+    <t>09:30-11:00</t>
+  </si>
+  <si>
+    <t>07:30 - 09:00</t>
+  </si>
+  <si>
+    <t>Rivadeneira y Tenesaca</t>
+  </si>
+  <si>
+    <t>Celleri y Jonathan Solis</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>13:30-15:00</t>
+  </si>
+  <si>
+    <t>Chong y Jonathan Solis</t>
+  </si>
+  <si>
+    <t>11:00-12:30</t>
+  </si>
+  <si>
+    <t>DIGITALES</t>
+  </si>
+  <si>
+    <t>DIGITALES P</t>
+  </si>
+  <si>
+    <t>Rios Sara</t>
+  </si>
+  <si>
+    <t>P1 o P2</t>
+  </si>
+  <si>
+    <t>Rios Sara o Prieto León</t>
+  </si>
+  <si>
+    <t>P3 o P4</t>
+  </si>
+  <si>
+    <t>Rios Sara o Valarezo</t>
+  </si>
+  <si>
+    <t>P101 o P108</t>
+  </si>
+  <si>
+    <t>Rios Sara o Sumba Nancy</t>
+  </si>
+  <si>
+    <t>P102 o P109</t>
+  </si>
+  <si>
+    <t>Sumba Nancy</t>
+  </si>
+  <si>
+    <t>P105 o P111</t>
+  </si>
+  <si>
+    <t>Rios Sara o Larrea</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Ana Tapia</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
+  </si>
+  <si>
+    <t>P2 VIRTUAL</t>
+  </si>
+  <si>
+    <t>19:00-20:30</t>
   </si>
 </sst>
 </file>
@@ -262,6 +346,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3905A88F-B8F0-4D7E-A3C2-ACCD2E89CE05}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,25 +729,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,16 +758,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -690,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -710,25 +798,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -756,25 +844,25 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -805,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -825,10 +913,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -840,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -848,22 +936,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -871,13 +959,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -888,16 +976,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -905,13 +993,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -922,47 +1010,47 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -977,15 +1065,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1000,38 +1088,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -1046,67 +1134,480 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="F23" t="s">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
